--- a/Arduino_UNO/Hardware/Eagle/Arduino_PLC_BOM.xlsx
+++ b/Arduino_UNO/Hardware/Eagle/Arduino_PLC_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Dropbox\Git\Eagle\projects\Arduino_PLC _V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3C11B301-5CCC-4CF4-B58B-635E5919D593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE42F7-C935-4F4A-B2C1-A9C8982A5E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="27180" windowHeight="13890"/>
+    <workbookView xWindow="660" yWindow="1710" windowWidth="27180" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   <definedNames>
     <definedName name="Arduino_PLC_BOM" localSheetId="0">Sheet1!$B$1:$H$16</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Arduino_PLC_BOM" type="6" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Arduino_PLC_BOM" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="C:\Users\USER\Dropbox\Git\Eagle\projects\Arduino_PLC _V3\Arduino_PLC_BOM.csv" tab="0" semicolon="1">
       <textFields count="8">
         <textField/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>Qty</t>
   </si>
@@ -398,11 +398,25 @@
     <t>https://www.mouser.jp/ProductDetail/Hirose-Connector/A2-6PA-2.54DSA71?qs=eDUdFcBPps09NAsAIQeNNA%3D%3D</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>実装済</t>
+    <rPh sb="0" eb="3">
+      <t>ジッソウスミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1052,7 +1066,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Arduino_PLC_BOM" connectionId="1" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Arduino_PLC_BOM" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1344,18 +1358,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1390,6 +1404,9 @@
       <c r="G1" t="s">
         <v>31</v>
       </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1407,6 +1424,9 @@
       <c r="E2" t="s">
         <v>62</v>
       </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1424,6 +1444,9 @@
       <c r="E3" t="s">
         <v>63</v>
       </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1441,6 +1464,9 @@
       <c r="E4" t="s">
         <v>64</v>
       </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1458,7 +1484,9 @@
       <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1476,6 +1504,9 @@
       <c r="E6" t="s">
         <v>70</v>
       </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1493,6 +1524,9 @@
       <c r="E7" t="s">
         <v>71</v>
       </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1509,6 +1543,9 @@
       </c>
       <c r="E8" t="s">
         <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1803,17 +1840,17 @@
   </sortState>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1"/>
-    <hyperlink ref="H10" r:id="rId2"/>
-    <hyperlink ref="H12" r:id="rId3"/>
-    <hyperlink ref="H13" r:id="rId4"/>
-    <hyperlink ref="H15" r:id="rId5"/>
-    <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="H16" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H18" r:id="rId9"/>
-    <hyperlink ref="H19" r:id="rId10"/>
-    <hyperlink ref="H20" r:id="rId11"/>
+    <hyperlink ref="H11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
